--- a/media/utils/tmplexcel/liway_ot.xlsx
+++ b/media/utils/tmplexcel/liway_ot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>CÔNG TY CỔ PHẦN LIWAYWAY VIỆT NAM</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>NGUYỄN HỮU CẦU B</t>
-  </si>
-  <si>
-    <t>Nhu cầu công việc</t>
-  </si>
-  <si>
-    <t>Đã duyệt 03/02/2023  08:20:00</t>
   </si>
 </sst>
 </file>
@@ -266,32 +260,32 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -644,188 +638,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="6"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.2" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="24.2" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.2" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="24.2" customHeight="1">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" ht="10.5" customHeight="1">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="10.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="37.5" customHeight="1">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="37.5" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="58.15" hidden="1" customHeight="1">
+    <row r="9" spans="1:10" ht="58.15" hidden="1" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.2" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.2" customHeight="1">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.2" customHeight="1">
-      <c r="A11" s="28">
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.2" customHeight="1">
+      <c r="A11" s="26">
         <v>519</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31">
-        <f>SUM(D12:D12)</f>
-        <v>4</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28" t="s">
+      <c r="G11" s="29">
+        <f>SUM($G12:$G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.2" customHeight="1">
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.2" customHeight="1">
       <c r="A12" s="11">
         <v>519</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19">
         <v>44958</v>
       </c>
-      <c r="D12" s="20">
-        <v>4</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="21">
-        <v>44959.375289351854</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.2" customHeight="1">
+      <c r="A13" s="11">
+        <v>519</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19">
+        <v>44958</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/utils/tmplexcel/liway_ot.xlsx
+++ b/media/utils/tmplexcel/liway_ot.xlsx
@@ -62,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm;@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -254,38 +255,38 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -644,7 +645,7 @@
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -707,32 +708,32 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="24.2" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" ht="24.2" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="10.5" customHeight="1">
       <c r="A7" s="1"/>
@@ -789,15 +790,15 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="18.2" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="15"/>
@@ -805,27 +806,27 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="18.2" customHeight="1">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>519</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <f>SUM($G12:$G13)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="15.2" customHeight="1">
       <c r="A12" s="11">
@@ -844,8 +845,8 @@
         <v>0</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="15.2" customHeight="1">
       <c r="A13" s="11">
@@ -864,8 +865,8 @@
         <v>0</v>
       </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/media/utils/tmplexcel/liway_ot.xlsx
+++ b/media/utils/tmplexcel/liway_ot.xlsx
@@ -22,9 +22,6 @@
     <t>BẢNG TĂNG CA TỔNG HỢP</t>
   </si>
   <si>
-    <t>TỪ NGÀY ……… ĐẾN NGÀY ……….</t>
-  </si>
-  <si>
     <t>MÃ VÂN TAY</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>NGUYỄN HỮU CẦU B</t>
+  </si>
+  <si>
+    <t>TỪ NGÀY ***F*** ĐẾN NGÀY ***T***</t>
   </si>
 </sst>
 </file>
@@ -279,14 +279,14 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -645,7 +645,7 @@
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -708,32 +708,32 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="24.2" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="24.2" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="10.5" customHeight="1">
       <c r="A7" s="1"/>
@@ -749,33 +749,33 @@
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1">
       <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="58.15" hidden="1" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -783,7 +783,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
@@ -791,7 +791,7 @@
     </row>
     <row r="10" spans="1:10" ht="18.2" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -799,7 +799,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="16"/>
@@ -810,13 +810,13 @@
         <v>519</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="27">
         <f>SUM($G12:$G13)</f>
@@ -824,7 +824,7 @@
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="24"/>
     </row>
@@ -833,7 +833,7 @@
         <v>519</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -846,14 +846,14 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="31"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="15.2" customHeight="1">
       <c r="A13" s="11">
         <v>519</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/media/utils/tmplexcel/liway_ot.xlsx
+++ b/media/utils/tmplexcel/liway_ot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>CÔNG TY CỔ PHẦN LIWAYWAY VIỆT NAM</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>TỪ NGÀY ***F*** ĐẾN NGÀY ***T***</t>
+  </si>
+  <si>
+    <t>function(){function e(e,t,a){var o=function(e,t,o,s,n,r,l,i,c){for(var d=0;d&lt;s.length;d++)e.copyTo(t,0,o+d,0,1,i,GC.Spread.Sheets.CopyToOptions.all),e.setValue(o+d,0,r.eid),e.setValue(o+d,1,r.EmpName),e.setValue(o+d,l,n),s[d].tong&amp;&amp;(e.setValue(o+d,l+1,s[d].tong),e.setValue(o+d,l+2,s[d].lydo),e.setValue(o+d,l+3,new Date(s[d].EachDate)),e.setValue(o+d,l+4,[103,104].indexOf(s[d].regsta)&gt;-1?{richText:[{style:{foreColor:103==s[d].regsta?"rgb(78,133,242)":"red"},text:a(33,s[d].regsta-100)+" "+DevExpress.localization.formatDate(new Date(s[d].todate),"dd/MM/yyyy HH:mm")}]}:a(33,s[d].regsta-100))),0==n.getDay()&amp;&amp;e.getRange(o+d,l,1,i-l).backColor("rgb(248,203,172)"),d&lt;s.length-1&amp;&amp;(n=new Date(new Date(s[d+1].EachDate).setHours(0,0,0,0)))};t.ex_ot=function(e,t,a,s,n){var r=e.getUsedRange(GC.Spread.Sheets.UsedRangeType.all),l={sec:9,sum:10,lin:13,tmR:2,block:4},i=l.lin,c=a[2],d=a[3],p=difDa(c,d)+1,u=r.colCount;l.secH=e.getCell(5,0).text(),e.setValue(5,0,l.secH.replace("***F***",fmtSD.format(a[2])).replace("***T***",fmtSD.format(a[3]))),l.secID=0,l.secH=e.getRowHeight(l.sec),l.sumH=e.getRowHeight(l.sum),l.grpE=t.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),l.grpM=t.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),t.emp.forEach(function(r,c){if(l.grpE[r.eid]){var d=l.grpE[r.eid],g=t.R.filter(function(e,t){if(d.indexOf(e.regid)&gt;-1)return l.grpM[e.id]&amp;&amp;(e.lydo=l.grpM[e.id][1]),!0});if(c&lt;44400){var h=0;l.secID==r.sec?h=1:l.secID=r.sec,e.addRows(i,l.block-h);var f=[new GC.Spread.Sheets.Range(l.sec,0,l.block-h,u)],m=[new GC.Spread.Sheets.Range(i,0,l.block-h,u)];n.commandManager().execute({cmd:"clipboardPaste",sheetName:n.getSheet(0).name(),fromSheet:e,fromRanges:f,pastedRanges:m,isCutting:!1,clipboardText:"",pasteOption:GC.Spread.Sheets.ClipboardPasteOptions.all}),i+=2-h,0==h&amp;&amp;(e.copyTo(l.sec,0,i-2,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-2,l.secH)),e.copyTo(l.sum,0,i-1,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-1,l.sumH),e.setValue(i-2,0,r.tenpb),e.setValue(i-1,0,r.eid),e.setValue(i-1,1,r.EmpName);var D=new Date(a[2]),S=g.length;if("1"===s?D=new Date(new Date(g[0].EachDate).setHours(0,0,0,0)):S=p,e[(S-l.tmR&gt;0?"add":"delete")+"Rows"](i+1,Math.abs(S-l.tmR)),"1"===s)o(e,l.lin-1,i,g,D,r,5,u);else{d=g.reduce(function(e,t){var a=new Date(new Date(t.EachDate).setHours(0,0,0,0));return(e[a]||(e[a]=[])).push(t),e},{});for(var w=0;w&lt;S;w++)d[D]?(d[D].length&gt;1&amp;&amp;(e.addRows(i+w+1,d[D].length-1),S+=d[D].length-1),o(e,l.lin-1,i+w,d[D],D,r,5,u),w+=d[D].length-1):o(e,l.lin-1,i+w,[{}],D,r,5,u),D=new Date(D.setDate(D.getDate()+1))}i+=S}}}),e.deleteRows(l.sec,4),e.frozenRowCount(8),e.setActiveCell(9,5),e.showCell(9,5,GC.Spread.Sheets.VerticalPosition.top,GC.Spread.Sheets.HorizontalPosition.left)}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
     <numFmt numFmtId="166" formatCode="General_)"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,6 +141,13 @@
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="5">
@@ -195,7 +205,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -287,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="fill" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -660,7 +673,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
+      <c r="A1" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>

--- a/media/utils/tmplexcel/liway_ot.xlsx
+++ b/media/utils/tmplexcel/liway_ot.xlsx
@@ -58,7 +58,7 @@
     <t>TỪ NGÀY ***F*** ĐẾN NGÀY ***T***</t>
   </si>
   <si>
-    <t>function(){function e(e,t,a){var o=function(e,t,o,s,n,r,l,i,c){for(var d=0;d&lt;s.length;d++)e.copyTo(t,0,o+d,0,1,i,GC.Spread.Sheets.CopyToOptions.all),e.setValue(o+d,0,r.eid),e.setValue(o+d,1,r.EmpName),e.setValue(o+d,l,n),s[d].tong&amp;&amp;(e.setValue(o+d,l+1,s[d].tong),e.setValue(o+d,l+2,s[d].lydo),e.setValue(o+d,l+3,new Date(s[d].EachDate)),e.setValue(o+d,l+4,[103,104].indexOf(s[d].regsta)&gt;-1?{richText:[{style:{foreColor:103==s[d].regsta?"rgb(78,133,242)":"red"},text:a(33,s[d].regsta-100)+" "+DevExpress.localization.formatDate(new Date(s[d].todate),"dd/MM/yyyy HH:mm")}]}:a(33,s[d].regsta-100))),0==n.getDay()&amp;&amp;e.getRange(o+d,l,1,i-l).backColor("rgb(248,203,172)"),d&lt;s.length-1&amp;&amp;(n=new Date(new Date(s[d+1].EachDate).setHours(0,0,0,0)))};t.ex_ot=function(e,t,a,s,n){var r=e.getUsedRange(GC.Spread.Sheets.UsedRangeType.all),l={sec:9,sum:10,lin:13,tmR:2,block:4},i=l.lin,c=a[2],d=a[3],p=difDa(c,d)+1,u=r.colCount;l.secH=e.getCell(5,0).text(),e.setValue(5,0,l.secH.replace("***F***",fmtSD.format(a[2])).replace("***T***",fmtSD.format(a[3]))),l.secID=0,l.secH=e.getRowHeight(l.sec),l.sumH=e.getRowHeight(l.sum),l.grpE=t.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),l.grpM=t.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),t.emp.forEach(function(r,c){if(l.grpE[r.eid]){var d=l.grpE[r.eid],g=t.R.filter(function(e,t){if(d.indexOf(e.regid)&gt;-1)return l.grpM[e.id]&amp;&amp;(e.lydo=l.grpM[e.id][1]),!0});if(c&lt;44400){var h=0;l.secID==r.sec?h=1:l.secID=r.sec,e.addRows(i,l.block-h);var f=[new GC.Spread.Sheets.Range(l.sec,0,l.block-h,u)],m=[new GC.Spread.Sheets.Range(i,0,l.block-h,u)];n.commandManager().execute({cmd:"clipboardPaste",sheetName:n.getSheet(0).name(),fromSheet:e,fromRanges:f,pastedRanges:m,isCutting:!1,clipboardText:"",pasteOption:GC.Spread.Sheets.ClipboardPasteOptions.all}),i+=2-h,0==h&amp;&amp;(e.copyTo(l.sec,0,i-2,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-2,l.secH)),e.copyTo(l.sum,0,i-1,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-1,l.sumH),e.setValue(i-2,0,r.tenpb),e.setValue(i-1,0,r.eid),e.setValue(i-1,1,r.EmpName);var D=new Date(a[2]),S=g.length;if("1"===s?D=new Date(new Date(g[0].EachDate).setHours(0,0,0,0)):S=p,e[(S-l.tmR&gt;0?"add":"delete")+"Rows"](i+1,Math.abs(S-l.tmR)),"1"===s)o(e,l.lin-1,i,g,D,r,5,u);else{d=g.reduce(function(e,t){var a=new Date(new Date(t.EachDate).setHours(0,0,0,0));return(e[a]||(e[a]=[])).push(t),e},{});for(var w=0;w&lt;S;w++)d[D]?(d[D].length&gt;1&amp;&amp;(e.addRows(i+w+1,d[D].length-1),S+=d[D].length-1),o(e,l.lin-1,i+w,d[D],D,r,5,u),w+=d[D].length-1):o(e,l.lin-1,i+w,[{}],D,r,5,u),D=new Date(D.setDate(D.getDate()+1))}i+=S}}}),e.deleteRows(l.sec,4),e.frozenRowCount(8),e.setActiveCell(9,5),e.showCell(9,5,GC.Spread.Sheets.VerticalPosition.top,GC.Spread.Sheets.HorizontalPosition.left)}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t,a){var o=function(e,t,o,s,n,r,l,i,c){for(var d=0;d&lt;s.length;d++)e.copyTo(t,0,o+d,0,1,i,GC.Spread.Sheets.CopyToOptions.all),e.setValue(o+d,0,r.eid),e.setValue(o+d,1,r.EmpName),e.setValue(o+d,l,n),s[d].tong&amp;&amp;(e.setValue(o+d,l+1,s[d].tong),e.setValue(o+d,l+2,s[d].lydo),e.setValue(o+d,l+3,new Date(s[d].EachDate)),e.setValue(o+d,l+4,[103,104].indexOf(s[d].regsta)&gt;-1?{richText:[{style:{foreColor:103==s[d].regsta?"rgb(78,133,242)":"red"},text:a(33,s[d].regsta-100)+" "+DevExpress.localization.formatDate(new Date(s[d].todate),"dd/MM/yyyy HH:mm")}]}:a(33,s[d].regsta-100))),0==n.getDay()&amp;&amp;e.getRange(o+d,l,1,i-l).backColor("rgb(248,203,172)"),d&lt;s.length-1&amp;&amp;(n=new Date(new Date(s[d+1].EachDate).setHours(0,0,0,0)))};t.ex_ot=function(e,t,a,s,n){var r=e.getUsedRange(GC.Spread.Sheets.UsedRangeType.all),l={sec:9,sum:10,lin:13,tmR:2,block:4},i=l.lin,c=a[2],d=a[3],p=difDa(c,d)+1,u=r.colCount;l.secH=e.getCell(5,0).text(),e.setValue(5,0,l.secH.replace("***F***",fmtSD.format(a[2])).replace("***T***",fmtSD.format(a[3]))),l.secID=0,l.secH=e.getRowHeight(l.sec),l.sumH=e.getRowHeight(l.sum),l.grpE=t.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),l.grpM=t.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),t.emp.forEach(function(r,c){if(l.grpE[r.eid]){var d=l.grpE[r.eid],g=t.R.filter(function(e,t){if(d.indexOf(e.regid)&gt;-1)return l.grpM[e.id]&amp;&amp;(e.lydo=l.grpM[e.id][1]),!0});if(c&lt;444e9){var h=0;l.secID==r.sec?h=1:l.secID=r.sec,e.addRows(i,l.block-h);var f=[new GC.Spread.Sheets.Range(l.sec,0,l.block-h,u)],m=[new GC.Spread.Sheets.Range(i,0,l.block-h,u)];n.commandManager().execute({cmd:"clipboardPaste",sheetName:n.getSheet(0).name(),fromSheet:e,fromRanges:f,pastedRanges:m,isCutting:!1,clipboardText:"",pasteOption:GC.Spread.Sheets.ClipboardPasteOptions.all}),i+=2-h,0==h&amp;&amp;(e.copyTo(l.sec,0,i-2,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-2,l.secH),e.setValue(i-2,0,r.tenpb)),e.copyTo(l.sum,0,i-1,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-1,l.sumH),e.setValue(i-1,0,r.eid),e.setValue(i-1,1,r.EmpName);var D=new Date(a[2]),S=g.length;if("1"===s?D=new Date(new Date(g[0].EachDate).setHours(0,0,0,0)):S=p,e[(S-l.tmR&gt;0?"add":"delete")+"Rows"](i+1,Math.abs(S-l.tmR)),"1"===s)o(e,l.lin-1,i,g,D,r,5,u);else{d=g.reduce(function(e,t){var a=new Date(new Date(t.EachDate).setHours(0,0,0,0));return(e[a]||(e[a]=[])).push(t),e},{});for(var w=0;w&lt;S;w++)d[D]?(d[D].length&gt;1&amp;&amp;(e.addRows(i+w+1,d[D].length-1),S+=d[D].length-1),o(e,l.lin-1,i+w,d[D],D,r,5,u),w+=d[D].length-1):o(e,l.lin-1,i+w,[{}],D,r,5,u),D=new Date(D.setDate(D.getDate()+1))}i+=S}}}),e.deleteRows(l.sec,4),e.frozenRowCount(8),e.setActiveCell(9,5),e.showCell(9,5,GC.Spread.Sheets.VerticalPosition.top,GC.Spread.Sheets.HorizontalPosition.left)}}e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){}}();</t>
   </si>
 </sst>
 </file>
@@ -292,14 +292,14 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="fill" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="fill" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -658,7 +658,7 @@
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:J6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -673,7 +673,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1"/>
@@ -723,32 +723,32 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="24.2" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="24.2" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="10.5" customHeight="1">
       <c r="A7" s="1"/>

--- a/media/utils/tmplexcel/liway_ot.xlsx
+++ b/media/utils/tmplexcel/liway_ot.xlsx
@@ -58,7 +58,7 @@
     <t>TỪ NGÀY ***F*** ĐẾN NGÀY ***T***</t>
   </si>
   <si>
-    <t>function(){function e(e,t,a){var o=function(e,t,o,s,n,r,l,i,c){for(var d=0;d&lt;s.length;d++)e.copyTo(t,0,o+d,0,1,i,GC.Spread.Sheets.CopyToOptions.all),e.setValue(o+d,0,r.eid),e.setValue(o+d,1,r.EmpName),e.setValue(o+d,l,n),s[d].tong&amp;&amp;(e.setValue(o+d,l+1,s[d].tong),e.setValue(o+d,l+2,s[d].lydo),e.setValue(o+d,l+3,new Date(s[d].EachDate)),e.setValue(o+d,l+4,[103,104].indexOf(s[d].regsta)&gt;-1?{richText:[{style:{foreColor:103==s[d].regsta?"rgb(78,133,242)":"red"},text:a(33,s[d].regsta-100)+" "+DevExpress.localization.formatDate(new Date(s[d].todate),"dd/MM/yyyy HH:mm")}]}:a(33,s[d].regsta-100))),0==n.getDay()&amp;&amp;e.getRange(o+d,l,1,i-l).backColor("rgb(248,203,172)"),d&lt;s.length-1&amp;&amp;(n=new Date(new Date(s[d+1].EachDate).setHours(0,0,0,0)))};t.ex_ot=function(e,t,a,s,n){var r=e.getUsedRange(GC.Spread.Sheets.UsedRangeType.all),l={sec:9,sum:10,lin:13,tmR:2,block:4},i=l.lin,c=a[2],d=a[3],p=difDa(c,d)+1,u=r.colCount;l.secH=e.getCell(5,0).text(),e.setValue(5,0,l.secH.replace("***F***",fmtSD.format(a[2])).replace("***T***",fmtSD.format(a[3]))),l.secID=0,l.secH=e.getRowHeight(l.sec),l.sumH=e.getRowHeight(l.sum),l.grpE=t.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),l.grpM=t.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),t.emp.forEach(function(r,c){if(l.grpE[r.eid]){var d=l.grpE[r.eid],g=t.R.filter(function(e,t){if(d.indexOf(e.regid)&gt;-1)return l.grpM[e.id]&amp;&amp;(e.lydo=l.grpM[e.id][1]),!0});if(c&lt;444e9){var h=0;l.secID==r.sec?h=1:l.secID=r.sec,e.addRows(i,l.block-h);var f=[new GC.Spread.Sheets.Range(l.sec,0,l.block-h,u)],m=[new GC.Spread.Sheets.Range(i,0,l.block-h,u)];n.commandManager().execute({cmd:"clipboardPaste",sheetName:n.getSheet(0).name(),fromSheet:e,fromRanges:f,pastedRanges:m,isCutting:!1,clipboardText:"",pasteOption:GC.Spread.Sheets.ClipboardPasteOptions.all}),i+=2-h,0==h&amp;&amp;(e.copyTo(l.sec,0,i-2,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-2,l.secH),e.setValue(i-2,0,r.tenpb)),e.copyTo(l.sum,0,i-1,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-1,l.sumH),e.setValue(i-1,0,r.eid),e.setValue(i-1,1,r.EmpName);var D=new Date(a[2]),S=g.length;if("1"===s?D=new Date(new Date(g[0].EachDate).setHours(0,0,0,0)):S=p,e[(S-l.tmR&gt;0?"add":"delete")+"Rows"](i+1,Math.abs(S-l.tmR)),"1"===s)o(e,l.lin-1,i,g,D,r,5,u);else{d=g.reduce(function(e,t){var a=new Date(new Date(t.EachDate).setHours(0,0,0,0));return(e[a]||(e[a]=[])).push(t),e},{});for(var w=0;w&lt;S;w++)d[D]?(d[D].length&gt;1&amp;&amp;(e.addRows(i+w+1,d[D].length-1),S+=d[D].length-1),o(e,l.lin-1,i+w,d[D],D,r,5,u),w+=d[D].length-1):o(e,l.lin-1,i+w,[{}],D,r,5,u),D=new Date(D.setDate(D.getDate()+1))}i+=S}}}),e.deleteRows(l.sec,4),e.frozenRowCount(8),e.setActiveCell(9,5),e.showCell(9,5,GC.Spread.Sheets.VerticalPosition.top,GC.Spread.Sheets.HorizontalPosition.left)}}e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){}}();</t>
+    <t>!function(){function e(e,t,a){var o=function(e,t,o,s,n,r,l,i,c){for(var d=0;d&lt;s.length;d++)e.copyTo(t,0,o+d,0,1,i,GC.Spread.Sheets.CopyToOptions.all),e.setValue(o+d,0,r.eid),e.setValue(o+d,1,r.EmpName),e.setValue(o+d,l,n),s[d].tong&amp;&amp;(e.setValue(o+d,l+1,s[d].tong),e.setValue(o+d,l+2,s[d].lydo),e.setValue(o+d,l+3,new Date(s[d].EachDate)),e.setValue(o+d,l+4,[103,104].indexOf(s[d].regsta)&gt;-1?{richText:[{style:{foreColor:103==s[d].regsta?"rgb(78,133,242)":"red"},text:a(33,s[d].regsta-100)+" "+DevExpress.localization.formatDate(new Date(s[d].todate),"dd/MM/yyyy HH:mm")}]}:a(33,s[d].regsta-100))),0==n.getDay()&amp;&amp;e.getRange(o+d,l,1,i-l).backColor("rgb(248,203,172)"),d&lt;s.length-1&amp;&amp;(n=new Date(new Date(s[d+1].EachDate).setHours(0,0,0,0)))};t.ex_ot=function(e,t,a,s,n){var r=e.getUsedRange(GC.Spread.Sheets.UsedRangeType.all),l={sec:9,sum:10,lin:13,tmR:2,block:4},i=l.lin,c=a[2],d=a[3],p=difDa(c,d)+1,u=r.colCount;l.secH=e.getCell(5,0).text(),e.setValue(5,0,l.secH.replace("***F***",fmtSD.format(a[2])).replace("***T***",fmtSD.format(a[3]))),l.secID=0,l.secH=e.getRowHeight(l.sec),l.sumH=e.getRowHeight(l.sum),l.grpE=t.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),l.grpM=t.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),t.emp.forEach(function(r,c){if(l.grpE[r.eid]){var d=l.grpE[r.eid],g=t.R.filter(function(e,t){if(d.indexOf(e.regid)&gt;-1)return l.grpM[e.id]&amp;&amp;(e.lydo=l.grpM[e.id][1]),!0});if(c&lt;444e9){var h=0;l.secID==r.sec?h=1:l.secID=r.sec,e.addRows(i,l.block-h);var f=[new GC.Spread.Sheets.Range(l.sec,0,l.block-h,u)],m=[new GC.Spread.Sheets.Range(i,0,l.block-h,u)];n.commandManager().execute({cmd:"clipboardPaste",sheetName:n.getSheet(0).name(),fromSheet:e,fromRanges:f,pastedRanges:m,isCutting:!1,clipboardText:"",pasteOption:GC.Spread.Sheets.ClipboardPasteOptions.all}),i+=2-h,0==h&amp;&amp;(e.copyTo(l.sec,0,i-2,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-2,l.secH),e.setValue(i-2,0,r.tenpb)),e.copyTo(l.sum,0,i-1,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-1,l.sumH),e.setValue(i-1,0,r.eid),e.setValue(i-1,1,r.EmpName);var D=new Date(a[2]),S=g.length;if("1"===s?D=new Date(new Date(g[0].EachDate).setHours(0,0,0,0)):S=p,e[(S-l.tmR&gt;0?"add":"delete")+"Rows"](i+1,Math.abs(S-l.tmR)),"1"===s)o(e,l.lin-1,i,g,D,r,5,u);else{d=g.reduce(function(e,t){var a=new Date(new Date(t.EachDate).setHours(0,0,0,0));return(e[a]||(e[a]=[])).push(t),e},{});for(var w=0;w&lt;S;w++)d[D]?(d[D].length&gt;1&amp;&amp;(e.addRows(i+w+1,d[D].length-1),S+=d[D].length-1),o(e,l.lin-1,i+w,d[D],D,r,5,u),w+=d[D].length-1):o(e,l.lin-1,i+w,[{}],D,r,5,u),D=new Date(D.setDate(D.getDate()+1))}i+=S}}}),e.deleteRows(l.sec,4),e.frozenRowCount(8),e.setActiveCell(9,5),e.showCell(9,5,GC.Spread.Sheets.VerticalPosition.top,GC.Spread.Sheets.HorizontalPosition.left)}}e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){}}();</t>
   </si>
 </sst>
 </file>

--- a/media/utils/tmplexcel/liway_ot.xlsx
+++ b/media/utils/tmplexcel/liway_ot.xlsx
@@ -58,7 +58,7 @@
     <t>TỪ NGÀY ***F*** ĐẾN NGÀY ***T***</t>
   </si>
   <si>
-    <t>!function(){function e(e,t,a){var o=function(e,t,o,s,n,r,l,i,c){for(var d=0;d&lt;s.length;d++)e.copyTo(t,0,o+d,0,1,i,GC.Spread.Sheets.CopyToOptions.all),e.setValue(o+d,0,r.eid),e.setValue(o+d,1,r.EmpName),e.setValue(o+d,l,n),s[d].tong&amp;&amp;(e.setValue(o+d,l+1,s[d].tong),e.setValue(o+d,l+2,s[d].lydo),e.setValue(o+d,l+3,new Date(s[d].EachDate)),e.setValue(o+d,l+4,[103,104].indexOf(s[d].regsta)&gt;-1?{richText:[{style:{foreColor:103==s[d].regsta?"rgb(78,133,242)":"red"},text:a(33,s[d].regsta-100)+" "+DevExpress.localization.formatDate(new Date(s[d].todate),"dd/MM/yyyy HH:mm")}]}:a(33,s[d].regsta-100))),0==n.getDay()&amp;&amp;e.getRange(o+d,l,1,i-l).backColor("rgb(248,203,172)"),d&lt;s.length-1&amp;&amp;(n=new Date(new Date(s[d+1].EachDate).setHours(0,0,0,0)))};t.ex_ot=function(e,t,a,s,n){var r=e.getUsedRange(GC.Spread.Sheets.UsedRangeType.all),l={sec:9,sum:10,lin:13,tmR:2,block:4},i=l.lin,c=a[2],d=a[3],p=difDa(c,d)+1,u=r.colCount;l.secH=e.getCell(5,0).text(),e.setValue(5,0,l.secH.replace("***F***",fmtSD.format(a[2])).replace("***T***",fmtSD.format(a[3]))),l.secID=0,l.secH=e.getRowHeight(l.sec),l.sumH=e.getRowHeight(l.sum),l.grpE=t.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),l.grpM=t.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),t.emp.forEach(function(r,c){if(l.grpE[r.eid]){var d=l.grpE[r.eid],g=t.R.filter(function(e,t){if(d.indexOf(e.regid)&gt;-1)return l.grpM[e.id]&amp;&amp;(e.lydo=l.grpM[e.id][1]),!0});if(c&lt;444e9){var h=0;l.secID==r.sec?h=1:l.secID=r.sec,e.addRows(i,l.block-h);var f=[new GC.Spread.Sheets.Range(l.sec,0,l.block-h,u)],m=[new GC.Spread.Sheets.Range(i,0,l.block-h,u)];n.commandManager().execute({cmd:"clipboardPaste",sheetName:n.getSheet(0).name(),fromSheet:e,fromRanges:f,pastedRanges:m,isCutting:!1,clipboardText:"",pasteOption:GC.Spread.Sheets.ClipboardPasteOptions.all}),i+=2-h,0==h&amp;&amp;(e.copyTo(l.sec,0,i-2,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-2,l.secH),e.setValue(i-2,0,r.tenpb)),e.copyTo(l.sum,0,i-1,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-1,l.sumH),e.setValue(i-1,0,r.eid),e.setValue(i-1,1,r.EmpName);var D=new Date(a[2]),S=g.length;if("1"===s?D=new Date(new Date(g[0].EachDate).setHours(0,0,0,0)):S=p,e[(S-l.tmR&gt;0?"add":"delete")+"Rows"](i+1,Math.abs(S-l.tmR)),"1"===s)o(e,l.lin-1,i,g,D,r,5,u);else{d=g.reduce(function(e,t){var a=new Date(new Date(t.EachDate).setHours(0,0,0,0));return(e[a]||(e[a]=[])).push(t),e},{});for(var w=0;w&lt;S;w++)d[D]?(d[D].length&gt;1&amp;&amp;(e.addRows(i+w+1,d[D].length-1),S+=d[D].length-1),o(e,l.lin-1,i+w,d[D],D,r,5,u),w+=d[D].length-1):o(e,l.lin-1,i+w,[{}],D,r,5,u),D=new Date(D.setDate(D.getDate()+1))}i+=S}}}),e.deleteRows(l.sec,4),e.frozenRowCount(8),e.setActiveCell(9,5),e.showCell(9,5,GC.Spread.Sheets.VerticalPosition.top,GC.Spread.Sheets.HorizontalPosition.left)}}e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){}}();</t>
+    <t>function(){function e(e,t,a){var o=function(e,t,o,s,n,r,l,i,c){for(var d=0;d&lt;s.length;d++)e.copyTo(t,0,o+d,0,1,i,GC.Spread.Sheets.CopyToOptions.all),e.setValue(o+d,0,r.eid),e.setValue(o+d,1,r.EmpName),e.setValue(o+d,l,n),s[d].tong&amp;&amp;(e.setValue(o+d,l+1,s[d].tong),e.setValue(o+d,l+2,s[d].lydo),e.setValue(o+d,l+3,new Date(s[d].EachDate)),e.setValue(o+d,l+4,[103,104].indexOf(s[d].regsta)&gt;-1?{richText:[{style:{foreColor:103==s[d].regsta?"rgb(78,133,242)":"red"},text:a(33,s[d].regsta-100)+" "+DevExpress.localization.formatDate(new Date(s[d].todate),"dd/MM/yyyy HH:mm")}]}:a(33,s[d].regsta-100))),0==n.getDay()&amp;&amp;e.getRange(o+d,l,1,i-l).backColor("rgb(248,203,172)"),d&lt;s.length-1&amp;&amp;(n=new Date(new Date(s[d+1].EachDate).setHours(0,0,0,0)))};t.ex_ot=function(e,t,a,s,n){var r=e.getUsedRange(GC.Spread.Sheets.UsedRangeType.all),l={sec:9,sum:10,lin:13,tmR:2,block:4},i=l.lin,c=a[2],d=a[3],p=difDa(c,d)+1,u=r.colCount;l.secH=e.getCell(5,0).text(),e.setValue(5,0,l.secH.replace("***F***",fmtSD.format(a[2])).replace("***T***",fmtSD.format(a[3]))),l.secID=0,l.secH=e.getRowHeight(l.sec),l.sumH=e.getRowHeight(l.sum),l.grpE=t.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),l.grpM=t.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),t.emp.forEach(function(r,c){if(l.grpE[r.eid]){var d=l.grpE[r.eid],g=t.R.filter(function(e,t){if(d.indexOf(e.regid)&gt;-1)return l.grpM[e.id]&amp;&amp;(e.lydo=l.grpM[e.id][1]),!0});if(c&lt;444e9){var h=0;l.secID==r.sec?h=1:l.secID=r.sec,e.addRows(i,l.block-h);var f=[new GC.Spread.Sheets.Range(l.sec,0,l.block-h,u)],m=[new GC.Spread.Sheets.Range(i,0,l.block-h,u)];n.commandManager().execute({cmd:"clipboardPaste",sheetName:n.getSheet(0).name(),fromSheet:e,fromRanges:f,pastedRanges:m,isCutting:!1,clipboardText:"",pasteOption:GC.Spread.Sheets.ClipboardPasteOptions.all}),i+=2-h,0==h&amp;&amp;(e.copyTo(l.sec,0,i-2,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-2,l.secH),e.setValue(i-2,0,r.tenpb)),e.copyTo(l.sum,0,i-1,0,1,u,GC.Spread.Sheets.CopyToOptions.all),e.setRowHeight(i-1,l.sumH),e.setValue(i-1,0,r.eid),e.setValue(i-1,1,r.EmpName);var D=new Date(a[2]),S=g.length;if("1"===s?D=new Date(new Date(g[0].EachDate).setHours(0,0,0,0)):S=p,e[(S-l.tmR&gt;0?"add":"delete")+"Rows"](i+1,Math.abs(S-l.tmR)),"1"===s)o(e,l.lin-1,i,g,D,r,5,u);else{d=g.reduce(function(e,t){var a=new Date(new Date(t.EachDate).setHours(0,0,0,0));return(e[a]||(e[a]=[])).push(t),e},{});for(var w=0;w&lt;S;w++)d[D]?(d[D].length&gt;1&amp;&amp;(e.addRows(i+w+1,d[D].length-1),S+=d[D].length-1),o(e,l.lin-1,i+w,d[D],D,r,5,u),w+=d[D].length-1):o(e,l.lin-1,i+w,[{}],D,r,5,u),D=new Date(D.setDate(D.getDate()+1))}i+=S}}}),e.deleteRows(l.sec,4),e.frozenRowCount(8),e.setActiveCell(9,5),e.showCell(9,5,GC.Spread.Sheets.VerticalPosition.top,GC.Spread.Sheets.HorizontalPosition.left)}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
